--- a/src/tasks/day2Tasks/AMoviesPage.xlsx
+++ b/src/tasks/day2Tasks/AMoviesPage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13138\Desktop\Selenium\projects\movieO\src\tasks\day2Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFC7436-EF03-44F5-ADD7-C58FEED0904C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E99F3A-8D05-4090-8FCA-06A73C17FDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="810" windowWidth="29040" windowHeight="15720" xr2:uid="{C7102377-46C0-4208-83C5-82400C790FF1}"/>
   </bookViews>
@@ -80,9 +80,6 @@
     <t>TC_002</t>
   </si>
   <si>
-    <t>As a user, I should be able to hover over the movie window and verify pop up window with movie description appears</t>
-  </si>
-  <si>
     <t>TC_003</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
   </si>
   <si>
     <t>Choose next movie</t>
-  </si>
-  <si>
-    <t>As user, I should be able to click on greater sign</t>
   </si>
   <si>
     <t>TC_005</t>
@@ -734,7 +728,13 @@
     </r>
   </si>
   <si>
-    <t>Movie window description</t>
+    <t>Movie window</t>
+  </si>
+  <si>
+    <t>As a user, I should be able to see the play button in the Movie window</t>
+  </si>
+  <si>
+    <t>As user, I should be able to move to next movie</t>
   </si>
 </sst>
 </file>
@@ -1780,7 +1780,7 @@
   <dimension ref="A1:AYR57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C9"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2300,22 +2300,22 @@
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>10</v>
@@ -2327,14 +2327,14 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>10</v>
@@ -2346,14 +2346,14 @@
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>10</v>
@@ -2365,7 +2365,7 @@
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="4" t="s">
@@ -3743,27 +3743,27 @@
       <c r="AYQ6"/>
       <c r="AYR6"/>
     </row>
-    <row r="7" spans="1:1344" ht="147" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1344" ht="84" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>10</v>
@@ -3772,14 +3772,14 @@
     </row>
     <row r="8" spans="1:1344" ht="126" x14ac:dyDescent="0.4">
       <c r="D8" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>10</v>
@@ -3788,14 +3788,14 @@
     </row>
     <row r="9" spans="1:1344" ht="126" x14ac:dyDescent="0.4">
       <c r="D9" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>10</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="10" spans="1:1344" ht="105" x14ac:dyDescent="0.4">
       <c r="D10" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="4" t="s">
@@ -3820,14 +3820,14 @@
     </row>
     <row r="11" spans="1:1344" ht="84" x14ac:dyDescent="0.4">
       <c r="D11" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>10</v>
@@ -4378,25 +4378,25 @@
     </row>
     <row r="13" spans="1:1344" ht="126" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="G13" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>10</v>
@@ -4405,14 +4405,14 @@
     </row>
     <row r="14" spans="1:1344" ht="101.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D14" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>10</v>
@@ -4421,14 +4421,14 @@
     </row>
     <row r="15" spans="1:1344" ht="132.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D15" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>10</v>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="16" spans="1:1344" ht="101.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D16" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="4" t="s">
@@ -4453,17 +4453,17 @@
     </row>
     <row r="17" spans="1:522" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D17" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>18</v>
       </c>
       <c r="I17" s="13"/>
     </row>
@@ -5009,27 +5009,27 @@
       <c r="TA18"/>
       <c r="TB18"/>
     </row>
-    <row r="19" spans="1:522" ht="126" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:522" ht="84" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="C19" s="4" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="G19" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>10</v>
@@ -5038,14 +5038,14 @@
     </row>
     <row r="20" spans="1:522" ht="112.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D20" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>10</v>
@@ -5054,14 +5054,14 @@
     </row>
     <row r="21" spans="1:522" ht="125.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D21" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>10</v>
@@ -5070,7 +5070,7 @@
     </row>
     <row r="22" spans="1:522" ht="87" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D22" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="4" t="s">
@@ -5086,14 +5086,14 @@
     </row>
     <row r="23" spans="1:522" ht="79.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D23" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>10</v>
@@ -5644,25 +5644,25 @@
     </row>
     <row r="25" spans="1:522" ht="102.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="G25" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>10</v>
@@ -5674,14 +5674,14 @@
       <c r="B26" s="6"/>
       <c r="C26" s="10"/>
       <c r="D26" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>10</v>
@@ -5693,14 +5693,14 @@
       <c r="B27" s="6"/>
       <c r="C27" s="10"/>
       <c r="D27" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>10</v>
@@ -5712,7 +5712,7 @@
       <c r="B28" s="6"/>
       <c r="C28" s="10"/>
       <c r="D28" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4" t="s">
@@ -5731,14 +5731,14 @@
       <c r="B29" s="6"/>
       <c r="C29" s="10"/>
       <c r="D29" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -6289,25 +6289,25 @@
     </row>
     <row r="31" spans="1:522" ht="126" x14ac:dyDescent="0.4">
       <c r="A31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="G31" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>10</v>
@@ -6316,14 +6316,14 @@
     </row>
     <row r="32" spans="1:522" ht="126" x14ac:dyDescent="0.4">
       <c r="D32" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>10</v>
@@ -6332,14 +6332,14 @@
     </row>
     <row r="33" spans="1:522" ht="126" x14ac:dyDescent="0.4">
       <c r="D33" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>10</v>
@@ -6348,7 +6348,7 @@
     </row>
     <row r="34" spans="1:522" ht="81" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D34" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="4" t="s">
@@ -6364,14 +6364,14 @@
     </row>
     <row r="35" spans="1:522" ht="106.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D35" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>10</v>
@@ -6922,41 +6922,41 @@
     </row>
     <row r="37" spans="1:522" ht="144" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="G37" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I37" s="9"/>
     </row>
-    <row r="38" spans="1:522" ht="126" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:522" ht="84" x14ac:dyDescent="0.4">
       <c r="D38" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>10</v>
@@ -6965,14 +6965,14 @@
     </row>
     <row r="39" spans="1:522" ht="126" x14ac:dyDescent="0.4">
       <c r="D39" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>10</v>
@@ -6981,7 +6981,7 @@
     </row>
     <row r="40" spans="1:522" ht="63" x14ac:dyDescent="0.4">
       <c r="D40" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="4" t="s">
@@ -6997,16 +6997,16 @@
     </row>
     <row r="41" spans="1:522" ht="159.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D41" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="G41" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>10</v>
